--- a/top_league_soccer/Excel/dados_tipico_bundesliga.xlsx
+++ b/top_league_soccer/Excel/dados_tipico_bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -82,12 +82,12 @@
     <t>LASK Linz</t>
   </si>
   <si>
+    <t>A. Klagenfurt</t>
+  </si>
+  <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>A. Klagenfurt</t>
-  </si>
-  <si>
     <t>Rapid Vienna</t>
   </si>
   <si>
@@ -112,136 +112,133 @@
     <t>1.8</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>42%</t>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>75%</t>
   </si>
   <si>
     <t>43%</t>
   </si>
   <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>63%</t>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>48%</t>
   </si>
   <si>
     <t>58%</t>
   </si>
   <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>2.74</t>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.38</t>
   </si>
   <si>
     <t>2.05</t>
   </si>
   <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.00</t>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.86</t>
   </si>
 </sst>
 </file>
@@ -639,13 +636,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -662,13 +659,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -688,10 +685,10 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -711,10 +708,10 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>69</v>
@@ -728,16 +725,16 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>70</v>
@@ -757,7 +754,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -780,10 +777,10 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -797,19 +794,19 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -820,19 +817,19 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -843,19 +840,19 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -866,19 +863,19 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -892,16 +889,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_tipico_bundesliga.xlsx
+++ b/top_league_soccer/Excel/dados_tipico_bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -97,37 +97,37 @@
     <t>Wolfsberger</t>
   </si>
   <si>
+    <t>Altach</t>
+  </si>
+  <si>
     <t>BW Linz</t>
   </si>
   <si>
-    <t>Altach</t>
-  </si>
-  <si>
     <t>WSG Tirol</t>
   </si>
   <si>
     <t>A. Lustenau</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>1.7</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>2.8</t>
@@ -136,109 +136,91 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
   <si>
     <t>5.5</t>
   </si>
   <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.3</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.4</t>
   </si>
   <si>
     <t>3.6</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>72%</t>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>68%</t>
   </si>
   <si>
     <t>77%</t>
   </si>
   <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.57</t>
-  </si>
-  <si>
-    <t>2.81</t>
-  </si>
-  <si>
-    <t>2.71</t>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>2.68</t>
   </si>
   <si>
     <t>2.14</t>
   </si>
   <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>2.86</t>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>2.82</t>
   </si>
 </sst>
 </file>
@@ -639,13 +621,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -662,13 +644,13 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -682,16 +664,16 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -705,16 +687,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -725,19 +707,19 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -748,19 +730,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -774,16 +756,16 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -797,16 +779,16 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -817,19 +799,19 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -840,7 +822,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -849,10 +831,10 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -869,13 +851,13 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -886,19 +868,19 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
